--- a/data/trans_camb/P25_11-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P25_11-Urba-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,59</t>
+          <t>3,34</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>3,05</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,36</t>
+          <t>1,94</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>3,73</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1,54</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0,54</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>3,43</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 2,72</t>
+          <t>-4,57; 3,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 3,24</t>
+          <t>-4,94; 3,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 7,79</t>
+          <t>-2,1; 9,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 6,09</t>
+          <t>-3,34; 10,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 4,25</t>
+          <t>-4,71; 8,19</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 3,05</t>
+          <t>-2,74; 10,54</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-2,55; 5,44</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-3,38; 4,31</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-1,0; 7,81</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-3,26%</t>
+          <t>-2,06%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>-14,27%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>22,37%</t>
+          <t>79,02%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,48%</t>
+          <t>27,25%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>17,65%</t>
+          <t>17,35%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>33,39%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>19,25%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>6,72%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>42,9%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-61,43; 162,06</t>
+          <t>-73,33; 187,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-56,36; 198,08</t>
+          <t>-75,91; 162,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-19,19; 86,77</t>
+          <t>-38,22; 400,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-31,21; 67,33</t>
+          <t>-23,63; 130,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-17,34; 65,46</t>
+          <t>-31,35; 104,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-30,57; 47,68</t>
+          <t>-20,96; 128,53</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-24,88; 91,02</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-34,24; 68,67</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-11,01; 130,94</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,03</t>
+          <t>-2,52</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>-1,13</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,02</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>-1,81</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,56</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>3,69</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-2,17</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-0,63</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2,2</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,19; 2,02</t>
+          <t>-8,09; 2,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 8,64</t>
+          <t>-7,1; 4,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 3,57</t>
+          <t>-4,79; 7,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 6,28</t>
+          <t>-7,05; 3,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 1,39</t>
+          <t>-5,56; 5,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 4,42</t>
+          <t>-2,78; 10,11</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-6,16; 1,35</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-4,58; 3,19</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-2,26; 6,48</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-35,19%</t>
+          <t>-37,06%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,1%</t>
+          <t>-16,58%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-12,1%</t>
+          <t>10,12%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>-24,59%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-21,69%</t>
+          <t>-1,66%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>50,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-30,52%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-8,92%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>30,94%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-78,73; 65,32</t>
+          <t>-80,18; 118,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-55,11; 247,51</t>
+          <t>-69,6; 145,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-51,6; 62,8</t>
+          <t>-51,3; 246,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-50,61; 108,52</t>
+          <t>-73,95; 94,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-53,12; 28,13</t>
+          <t>-54,69; 130,55</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-42,22; 82,17</t>
+          <t>-30,8; 207,69</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-67,82; 32,12</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-50,12; 62,71</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-25,87; 117,99</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,19</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,08</t>
+          <t>3,96</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,7</t>
+          <t>4,95</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>4,27</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,48</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>0,21</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>3,12</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3,17</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2,67</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 14,64</t>
+          <t>-11,21; 19,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 10,98</t>
+          <t>-10,04; 21,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,06; 11,59</t>
+          <t>-8,58; 25,01</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,66; 7,5</t>
+          <t>-8,39; 15,91</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 9,82</t>
+          <t>-9,64; 14,71</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 7,51</t>
+          <t>-11,21; 10,89</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-5,44; 13,83</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-6,26; 13,44</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-6,19; 14,27</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>95,86%</t>
+          <t>32,62%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>47,6%</t>
+          <t>66,14%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>42,72%</t>
+          <t>82,81%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-6,44%</t>
+          <t>73,75%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>65,71%</t>
+          <t>40,26%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>17,02%</t>
+          <t>3,68%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>53,05%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>53,82%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>45,29%</t>
         </is>
       </c>
     </row>
@@ -1037,22 +1233,37 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-76,13; 509,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-85,09; 417,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-37,62; 384,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-62,65; 270,87</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-72,18; 873,78</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-67,85; 719,65</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-77,96; 1011,96</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>-0,87</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>2,46</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>3,42</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0,19</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0,33</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>2,87</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 1,76</t>
+          <t>-4,41; 2,52</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 3,55</t>
+          <t>-3,97; 2,68</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 4,95</t>
+          <t>-1,32; 6,37</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 3,91</t>
+          <t>-2,79; 5,17</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 2,3</t>
+          <t>-2,6; 5,26</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 2,5</t>
+          <t>-0,76; 8,19</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-2,44; 2,93</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-2,47; 2,82</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-0,1; 5,86</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-8,12%</t>
+          <t>-15,93%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>11,09%</t>
+          <t>-5,84%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>12,01%</t>
+          <t>44,95%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>13,73%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>12,58%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>37,59%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>2,63%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>4,49%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>38,73%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-49,06; 58,86</t>
+          <t>-62,4; 64,62</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-40,47; 111,39</t>
+          <t>-53,91; 73,09</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-18,21; 58,57</t>
+          <t>-22,44; 155,98</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-25,75; 47,33</t>
+          <t>-24,89; 74,04</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-21,12; 37,23</t>
+          <t>-23,33; 72,78</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-22,0; 40,69</t>
+          <t>-7,28; 113,32</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-28,65; 46,81</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-29,32; 44,97</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-4,44; 91,04</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
